--- a/gropin/schema/metadataschema269.xlsx
+++ b/gropin/schema/metadataschema269.xlsx
@@ -5259,7 +5259,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(9.99000999000999,49.049,length.out=21)</t>
+          <t>seq(10.01,48.951048951049,length.out=21)</t>
         </is>
       </c>
     </row>
@@ -5302,8 +5302,8 @@
       <c r="O134" t="inlineStr">
         <is>
           <t>This dataframe consists of a number of columns 
-                            in relation to the number of variables of this
-                            model. One additional column contains the response
+                            in relation to the number of variables of this 
+                            model. One additional column contains the response 
                             surface mu_max result based on this secondary model.</t>
         </is>
       </c>

--- a/gropin/schema/metadataschema269.xlsx
+++ b/gropin/schema/metadataschema269.xlsx
@@ -1496,6 +1496,11 @@
           <t>International Journal of Food Microbiology ,  110,85-92</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>International Journal of Food Microbiology ,  110,85-92</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1738,6 +1743,11 @@
           <t>String</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5286,7 +5296,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>mumax</t>
+          <t>responseSurface</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
